--- a/Agriculture_Profitability_Analysis.xlsx.xlsx
+++ b/Agriculture_Profitability_Analysis.xlsx.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10155"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Row Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="5" r:id="rId1"/>
+    <sheet name="Cleaned Data" sheetId="2" r:id="rId2"/>
     <sheet name="Piovet Table" sheetId="3" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -201,13 +201,13 @@
     <t>Avg. profit percentage</t>
   </si>
   <si>
-    <t>herbicide</t>
+    <t>delta</t>
   </si>
   <si>
-    <t>seeds</t>
+    <t>upper Egypt</t>
   </si>
   <si>
-    <t>Ha ny</t>
+    <t>liquid Fert</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +282,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -441,7 +449,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -495,6 +503,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,24 +535,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -545,16 +552,16 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -779,11 +786,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52225920"/>
-        <c:axId val="52227456"/>
+        <c:axId val="104523264"/>
+        <c:axId val="104524800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52225920"/>
+        <c:axId val="104523264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52227456"/>
+        <c:crossAx val="104524800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -800,7 +807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52227456"/>
+        <c:axId val="104524800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52225920"/>
+        <c:crossAx val="104523264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1062,7 +1069,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1233,11 +1239,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53213824"/>
-        <c:axId val="53305728"/>
+        <c:axId val="105515264"/>
+        <c:axId val="105541632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53213824"/>
+        <c:axId val="105515264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53305728"/>
+        <c:crossAx val="105541632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1254,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53305728"/>
+        <c:axId val="105541632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53213824"/>
+        <c:crossAx val="105515264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1276,7 +1282,6 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1340,7 +1345,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1721,11 +1725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53342976"/>
-        <c:axId val="53344512"/>
+        <c:axId val="105582976"/>
+        <c:axId val="105584512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53342976"/>
+        <c:axId val="105582976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +1738,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53344512"/>
+        <c:crossAx val="105584512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1742,7 +1746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53344512"/>
+        <c:axId val="105584512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1757,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53342976"/>
+        <c:crossAx val="105582976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1942,11 +1946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108009728"/>
-        <c:axId val="108011520"/>
+        <c:axId val="107946368"/>
+        <c:axId val="107947904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108009728"/>
+        <c:axId val="107946368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108011520"/>
+        <c:crossAx val="107947904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +1967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108011520"/>
+        <c:axId val="107947904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +1978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108009728"/>
+        <c:crossAx val="107946368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2574,11 +2578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108096128"/>
-        <c:axId val="108097920"/>
+        <c:axId val="107635456"/>
+        <c:axId val="107636992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108096128"/>
+        <c:axId val="107635456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108097920"/>
+        <c:crossAx val="107636992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2595,7 +2599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108097920"/>
+        <c:axId val="107636992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +2610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108096128"/>
+        <c:crossAx val="107635456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3143,11 +3147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108133760"/>
-        <c:axId val="108991616"/>
+        <c:axId val="108086784"/>
+        <c:axId val="108088320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108133760"/>
+        <c:axId val="108086784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,7 +3160,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108991616"/>
+        <c:crossAx val="108088320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3164,7 +3168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108991616"/>
+        <c:axId val="108088320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3179,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108133760"/>
+        <c:crossAx val="108086784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5271,6 +5275,305 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A32:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Average of Profit %" fld="11" subtotal="average" baseField="2" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="2">
+    <conditionalFormat priority="7">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="8">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A20:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Profit %" fld="11" subtotal="average" baseField="3" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -5332,10 +5635,10 @@
     <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5381,7 +5684,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A65:C82" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="13">
@@ -5421,7 +5724,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A49:I55" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="13">
@@ -5655,305 +5958,6 @@
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A32:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="7">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Average of Profit %" fld="11" subtotal="average" baseField="2" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <conditionalFormats count="2">
-    <conditionalFormat priority="8">
-      <pivotAreas count="1">
-        <pivotArea outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="7">
-      <pivotAreas count="1">
-        <pivotArea outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A20:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Profit %" fld="11" subtotal="average" baseField="3" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -6316,7 +6320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6326,54 +6330,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="9" style="42"/>
+    <col min="1" max="1" width="13.625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="45" t="s">
@@ -6381,7 +6379,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="40">
+      <c r="A2" s="32">
         <v>46082</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6414,12 +6412,12 @@
       <c r="K2" s="2">
         <v>3600</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="33">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="40">
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
         <v>46082</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6452,16 +6450,16 @@
       <c r="K3" s="2">
         <v>15000</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="33">
         <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40">
+      <c r="A4" s="32">
         <v>46083</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -6490,12 +6488,12 @@
       <c r="K4" s="2">
         <v>2000</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="33">
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="40">
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="32">
         <v>46083</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6528,16 +6526,16 @@
       <c r="K5" s="2">
         <v>8000</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="33">
         <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="32">
         <v>46084</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -6566,12 +6564,12 @@
       <c r="K6" s="2">
         <v>2250</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="33">
         <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
+      <c r="A7" s="32">
         <v>46084</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6604,12 +6602,12 @@
       <c r="K7" s="2">
         <v>3600</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="33">
         <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40">
+      <c r="A8" s="32">
         <v>46085</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6622,7 +6620,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>15</v>
@@ -6642,12 +6640,12 @@
       <c r="K8" s="2">
         <v>1200</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="33">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="40">
+    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="32">
         <v>46085</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6657,7 +6655,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -6680,12 +6678,12 @@
       <c r="K9" s="2">
         <v>6400</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="33">
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
         <v>46086</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6718,12 +6716,12 @@
       <c r="K10" s="2">
         <v>10000</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
         <v>46086</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6756,12 +6754,12 @@
       <c r="K11" s="2">
         <v>5000</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="33">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="40">
+      <c r="A12" s="32">
         <v>46087</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6794,12 +6792,12 @@
       <c r="K12" s="2">
         <v>6000</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="33">
         <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="40">
+      <c r="A13" s="32">
         <v>46087</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6832,12 +6830,12 @@
       <c r="K13" s="2">
         <v>4900</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="33">
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="40">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
         <v>46088</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6870,12 +6868,12 @@
       <c r="K14" s="2">
         <v>4800</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="33">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
+      <c r="A15" s="32">
         <v>46088</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6908,12 +6906,12 @@
       <c r="K15" s="2">
         <v>1500</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="33">
         <v>0.23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="40">
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="32">
         <v>46089</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6946,12 +6944,12 @@
       <c r="K16" s="2">
         <v>8800</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="33">
         <v>0.35</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="40">
+      <c r="A17" s="32">
         <v>46089</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -6984,12 +6982,12 @@
       <c r="K17" s="2">
         <v>2200</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="33">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="40">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
         <v>46090</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7022,12 +7020,12 @@
       <c r="K18" s="2">
         <v>5750</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="33">
         <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="40">
+      <c r="A19" s="32">
         <v>46090</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -7060,12 +7058,12 @@
       <c r="K19" s="2">
         <v>2800</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="33">
         <v>0.33</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="40">
+      <c r="A20" s="32">
         <v>46091</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7098,12 +7096,12 @@
       <c r="K20" s="2">
         <v>1080</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="33">
         <v>0.22</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="40">
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="32">
         <v>46092</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7136,12 +7134,12 @@
       <c r="K21" s="2">
         <v>9000</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="33">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="40">
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
         <v>46092</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -7174,12 +7172,12 @@
       <c r="K22" s="2">
         <v>3300</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="33">
         <v>0.27</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="40">
+      <c r="A23" s="32">
         <v>46093</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -7212,12 +7210,12 @@
       <c r="K23" s="2">
         <v>3600</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="33">
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="32">
         <v>46093</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -7250,12 +7248,12 @@
       <c r="K24" s="2">
         <v>9450</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="33">
         <v>0.41</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="40">
+      <c r="A25" s="32">
         <v>46094</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -7288,12 +7286,12 @@
       <c r="K25" s="2">
         <v>4200</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="33">
         <v>0.19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="40">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
         <v>46094</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -7326,12 +7324,12 @@
       <c r="K26" s="2">
         <v>5850</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="33">
         <v>0.32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="40">
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
         <v>46095</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -7364,12 +7362,12 @@
       <c r="K27" s="2">
         <v>3500</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="33">
         <v>0.33</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="40">
+      <c r="A28" s="32">
         <v>46096</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -7402,12 +7400,12 @@
       <c r="K28" s="2">
         <v>2000</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="33">
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="40">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
         <v>46096</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -7440,12 +7438,12 @@
       <c r="K29" s="2">
         <v>6300</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="33">
         <v>0.38</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="40">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
         <v>46097</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -7478,12 +7476,12 @@
       <c r="K30" s="2">
         <v>6000</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="33">
         <v>0.33</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="40">
+      <c r="A31" s="32">
         <v>46097</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -7516,12 +7514,12 @@
       <c r="K31" s="2">
         <v>5200</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="33">
         <v>0.32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="40">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
         <v>46098</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -7554,12 +7552,12 @@
       <c r="K32" s="2">
         <v>5950</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="33">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="40">
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
         <v>46098</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -7592,12 +7590,12 @@
       <c r="K33" s="2">
         <v>9900</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="33">
         <v>0.42</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="40">
+      <c r="A34" s="32">
         <v>46099</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -7630,12 +7628,12 @@
       <c r="K34" s="2">
         <v>1500</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="33">
         <v>0.17</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="40">
+    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="32">
         <v>46100</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -7668,12 +7666,12 @@
       <c r="K35" s="2">
         <v>4000</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="33">
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="40">
+    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="32">
         <v>46101</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -7706,12 +7704,12 @@
       <c r="K36" s="2">
         <v>10000</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="33">
         <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="40">
+      <c r="A37" s="32">
         <v>46101</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -7744,12 +7742,12 @@
       <c r="K37" s="2">
         <v>2750</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="33">
         <v>0.26</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="40">
+      <c r="A38" s="32">
         <v>46102</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -7782,12 +7780,12 @@
       <c r="K38" s="2">
         <v>3750</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="33">
         <v>0.35</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="40">
+      <c r="A39" s="32">
         <v>46103</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -7820,12 +7818,12 @@
       <c r="K39" s="2">
         <v>5950</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L39" s="33">
         <v>0.33</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="40">
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="32">
         <v>46103</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -7858,12 +7856,12 @@
       <c r="K40" s="2">
         <v>6500</v>
       </c>
-      <c r="L40" s="41">
+      <c r="L40" s="33">
         <v>0.31</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="40">
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="32">
         <v>46104</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -7896,12 +7894,12 @@
       <c r="K41" s="2">
         <v>7350</v>
       </c>
-      <c r="L41" s="41">
+      <c r="L41" s="33">
         <v>0.41</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="40">
+      <c r="A42" s="32">
         <v>46105</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -7934,12 +7932,12 @@
       <c r="K42" s="2">
         <v>2700</v>
       </c>
-      <c r="L42" s="41">
+      <c r="L42" s="33">
         <v>0.22</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="40">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="32">
         <v>46106</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -7972,12 +7970,12 @@
       <c r="K43" s="2">
         <v>4400</v>
       </c>
-      <c r="L43" s="41">
+      <c r="L43" s="33">
         <v>0.39</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="40">
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="32">
         <v>46106</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -8010,12 +8008,12 @@
       <c r="K44" s="2">
         <v>2500</v>
       </c>
-      <c r="L44" s="41">
+      <c r="L44" s="33">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="40">
+      <c r="A45" s="32">
         <v>46107</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -8048,12 +8046,12 @@
       <c r="K45" s="2">
         <v>2200</v>
       </c>
-      <c r="L45" s="41">
+      <c r="L45" s="33">
         <v>0.18</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="40">
+    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="32">
         <v>46108</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -8086,12 +8084,12 @@
       <c r="K46" s="2">
         <v>6000</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="33">
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="40">
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="32">
         <v>46109</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -8124,12 +8122,12 @@
       <c r="K47" s="2">
         <v>3450</v>
       </c>
-      <c r="L47" s="41">
+      <c r="L47" s="33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="40">
+    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="32">
         <v>46110</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -8162,16 +8160,16 @@
       <c r="K48" s="2">
         <v>4200</v>
       </c>
-      <c r="L48" s="41">
+      <c r="L48" s="33">
         <v>0.3</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="40">
+      <c r="A49" s="32">
         <v>46111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>31</v>
@@ -8200,12 +8198,12 @@
       <c r="K49" s="2">
         <v>4900</v>
       </c>
-      <c r="L49" s="41">
+      <c r="L49" s="33">
         <v>0.33</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="40">
+      <c r="A50" s="32">
         <v>46112</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -8238,12 +8236,12 @@
       <c r="K50" s="2">
         <v>8800</v>
       </c>
-      <c r="L50" s="41">
+      <c r="L50" s="33">
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="40">
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="32">
         <v>46113</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -8276,19 +8274,19 @@
       <c r="K51" s="2">
         <v>9000</v>
       </c>
-      <c r="L51" s="41">
+      <c r="L51" s="33">
         <v>0.33</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="40">
+      <c r="A52" s="32">
         <v>46113</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>21</v>
@@ -8314,12 +8312,12 @@
       <c r="K52" s="2">
         <v>800</v>
       </c>
-      <c r="L52" s="41">
+      <c r="L52" s="33">
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="40">
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="32">
         <v>46114</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -8352,12 +8350,12 @@
       <c r="K53" s="2">
         <v>5000</v>
       </c>
-      <c r="L53" s="41">
+      <c r="L53" s="33">
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="40">
+    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="32">
         <v>46115</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -8390,12 +8388,12 @@
       <c r="K54" s="2">
         <v>9600</v>
       </c>
-      <c r="L54" s="41">
+      <c r="L54" s="33">
         <v>0.27</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="40">
+      <c r="A55" s="32">
         <v>46116</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -8428,12 +8426,12 @@
       <c r="K55" s="2">
         <v>3000</v>
       </c>
-      <c r="L55" s="41">
+      <c r="L55" s="33">
         <v>0.3</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="40">
+      <c r="A56" s="32">
         <v>46117</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -8466,12 +8464,12 @@
       <c r="K56" s="2">
         <v>5200</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="33">
         <v>0.32</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="40">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="32">
         <v>46118</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -8504,12 +8502,12 @@
       <c r="K57" s="2">
         <v>5200</v>
       </c>
-      <c r="L57" s="41">
+      <c r="L57" s="33">
         <v>0.36</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="40">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="32">
         <v>46119</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -8542,12 +8540,12 @@
       <c r="K58" s="2">
         <v>11000</v>
       </c>
-      <c r="L58" s="41">
+      <c r="L58" s="33">
         <v>0.4</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="40">
+      <c r="A59" s="32">
         <v>46120</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -8580,12 +8578,12 @@
       <c r="K59" s="2">
         <v>2000</v>
       </c>
-      <c r="L59" s="41">
+      <c r="L59" s="33">
         <v>0.17</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="40">
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="32">
         <v>46121</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -8618,12 +8616,12 @@
       <c r="K60" s="2">
         <v>6300</v>
       </c>
-      <c r="L60" s="41">
+      <c r="L60" s="33">
         <v>0.26</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="40">
+      <c r="A61" s="32">
         <v>46122</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -8656,12 +8654,12 @@
       <c r="K61" s="2">
         <v>12000</v>
       </c>
-      <c r="L61" s="41">
+      <c r="L61" s="33">
         <v>0.4</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="40">
+      <c r="A62" s="32">
         <v>46123</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -8694,12 +8692,12 @@
       <c r="K62" s="2">
         <v>2250</v>
       </c>
-      <c r="L62" s="41">
+      <c r="L62" s="33">
         <v>0.26</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="40">
+    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="32">
         <v>46124</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -8732,12 +8730,12 @@
       <c r="K63" s="2">
         <v>7350</v>
       </c>
-      <c r="L63" s="41">
+      <c r="L63" s="33">
         <v>0.38</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="40">
+      <c r="A64" s="32">
         <v>46125</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -8770,12 +8768,12 @@
       <c r="K64" s="2">
         <v>4500</v>
       </c>
-      <c r="L64" s="41">
+      <c r="L64" s="33">
         <v>0.35</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="40">
+    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="32">
         <v>46126</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -8808,12 +8806,12 @@
       <c r="K65" s="2">
         <v>8100</v>
       </c>
-      <c r="L65" s="41">
+      <c r="L65" s="33">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="40">
+      <c r="A66" s="32">
         <v>46127</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -8846,12 +8844,12 @@
       <c r="K66" s="2">
         <v>3000</v>
       </c>
-      <c r="L66" s="41">
+      <c r="L66" s="33">
         <v>0.19</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="40">
+    <row r="67" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="32">
         <v>46128</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -8884,12 +8882,12 @@
       <c r="K67" s="2">
         <v>2800</v>
       </c>
-      <c r="L67" s="41">
+      <c r="L67" s="33">
         <v>0.33</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="40">
+    <row r="68" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="32">
         <v>46129</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -8922,12 +8920,12 @@
       <c r="K68" s="2">
         <v>8000</v>
       </c>
-      <c r="L68" s="41">
+      <c r="L68" s="33">
         <v>0.35</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="40">
+      <c r="A69" s="32">
         <v>46130</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -8960,12 +8958,12 @@
       <c r="K69" s="2">
         <v>1500</v>
       </c>
-      <c r="L69" s="41">
+      <c r="L69" s="33">
         <v>0.24</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="40">
+    <row r="70" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="32">
         <v>46131</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -8998,12 +8996,12 @@
       <c r="K70" s="2">
         <v>3750</v>
       </c>
-      <c r="L70" s="41">
+      <c r="L70" s="33">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="40">
+      <c r="A71" s="32">
         <v>46132</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -9036,12 +9034,12 @@
       <c r="K71" s="2">
         <v>5500</v>
       </c>
-      <c r="L71" s="41">
+      <c r="L71" s="33">
         <v>0.42</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="40">
+    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="32">
         <v>46133</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -9074,12 +9072,12 @@
       <c r="K72" s="2">
         <v>9000</v>
       </c>
-      <c r="L72" s="41">
+      <c r="L72" s="33">
         <v>0.36</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="40">
+      <c r="A73" s="32">
         <v>46134</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -9112,12 +9110,12 @@
       <c r="K73" s="2">
         <v>1600</v>
       </c>
-      <c r="L73" s="41">
+      <c r="L73" s="33">
         <v>0.2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="40">
+      <c r="A74" s="32">
         <v>46135</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -9150,12 +9148,12 @@
       <c r="K74" s="2">
         <v>4200</v>
       </c>
-      <c r="L74" s="41">
+      <c r="L74" s="33">
         <v>0.3</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="40">
+      <c r="A75" s="32">
         <v>46136</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -9188,16 +9186,16 @@
       <c r="K75" s="2">
         <v>3025</v>
       </c>
-      <c r="L75" s="41">
+      <c r="L75" s="33">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="40">
+    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="32">
         <v>46137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
@@ -9226,16 +9224,16 @@
       <c r="K76" s="2">
         <v>11000</v>
       </c>
-      <c r="L76" s="41">
+      <c r="L76" s="33">
         <v>0.39</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="40">
+      <c r="A77" s="32">
         <v>46138</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
@@ -9264,12 +9262,12 @@
       <c r="K77" s="2">
         <v>6300</v>
       </c>
-      <c r="L77" s="41">
+      <c r="L77" s="33">
         <v>0.33</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="40">
+    <row r="78" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="32">
         <v>46139</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -9302,12 +9300,12 @@
       <c r="K78" s="2">
         <v>13650</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="33">
         <v>0.41</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="40">
+    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="32">
         <v>46140</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -9340,12 +9338,12 @@
       <c r="K79" s="2">
         <v>9350</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="33">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="40">
+      <c r="A80" s="32">
         <v>46141</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -9378,12 +9376,12 @@
       <c r="K80" s="2">
         <v>1650</v>
       </c>
-      <c r="L80" s="41">
+      <c r="L80" s="33">
         <v>0.18</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="40">
+      <c r="A81" s="32">
         <v>46142</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -9416,12 +9414,12 @@
       <c r="K81" s="2">
         <v>11275</v>
       </c>
-      <c r="L81" s="41">
+      <c r="L81" s="33">
         <v>0.41</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="40">
+      <c r="A82" s="32">
         <v>46143</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -9454,12 +9452,12 @@
       <c r="K82" s="2">
         <v>1400</v>
       </c>
-      <c r="L82" s="41">
+      <c r="L82" s="33">
         <v>0.22</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="40">
+      <c r="A83" s="32">
         <v>46144</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -9492,12 +9490,12 @@
       <c r="K83" s="2">
         <v>5700</v>
       </c>
-      <c r="L83" s="41">
+      <c r="L83" s="33">
         <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="40">
+      <c r="A84" s="32">
         <v>46145</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -9530,12 +9528,12 @@
       <c r="K84" s="2">
         <v>6500</v>
       </c>
-      <c r="L84" s="41">
+      <c r="L84" s="33">
         <v>0.32</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="40">
+      <c r="A85" s="32">
         <v>46146</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -9568,12 +9566,12 @@
       <c r="K85" s="2">
         <v>3300</v>
       </c>
-      <c r="L85" s="41">
+      <c r="L85" s="33">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="40">
+    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="32">
         <v>46147</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -9606,12 +9604,12 @@
       <c r="K86" s="2">
         <v>11250</v>
       </c>
-      <c r="L86" s="41">
+      <c r="L86" s="33">
         <v>0.33</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="40">
+      <c r="A87" s="32">
         <v>46148</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -9624,7 +9622,7 @@
         <v>14</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2">
         <v>20</v>
@@ -9644,12 +9642,12 @@
       <c r="K87" s="2">
         <v>4400</v>
       </c>
-      <c r="L87" s="41">
+      <c r="L87" s="33">
         <v>0.27</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="40">
+    <row r="88" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="32">
         <v>46149</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -9682,12 +9680,12 @@
       <c r="K88" s="2">
         <v>16000</v>
       </c>
-      <c r="L88" s="41">
+      <c r="L88" s="33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="40">
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="32">
         <v>46150</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -9720,12 +9718,12 @@
       <c r="K89" s="2">
         <v>3375</v>
       </c>
-      <c r="L89" s="41">
+      <c r="L89" s="33">
         <v>0.35</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="40">
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="32">
         <v>46151</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -9758,12 +9756,12 @@
       <c r="K90" s="2">
         <v>12000</v>
       </c>
-      <c r="L90" s="41">
+      <c r="L90" s="33">
         <v>0.36</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="40">
+      <c r="A91" s="32">
         <v>46152</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -9796,12 +9794,12 @@
       <c r="K91" s="2">
         <v>4500</v>
       </c>
-      <c r="L91" s="41">
+      <c r="L91" s="33">
         <v>0.35</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="40">
+    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="32">
         <v>46153</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -9834,12 +9832,12 @@
       <c r="K92" s="2">
         <v>7200</v>
       </c>
-      <c r="L92" s="41">
+      <c r="L92" s="33">
         <v>0.27</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="40">
+      <c r="A93" s="32">
         <v>46154</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -9872,12 +9870,12 @@
       <c r="K93" s="2">
         <v>3400</v>
       </c>
-      <c r="L93" s="41">
+      <c r="L93" s="33">
         <v>0.21</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="40">
+    <row r="94" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="32">
         <v>46155</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -9910,12 +9908,12 @@
       <c r="K94" s="2">
         <v>6600</v>
       </c>
-      <c r="L94" s="41">
+      <c r="L94" s="33">
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="40">
+    <row r="95" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="32">
         <v>46156</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -9948,12 +9946,12 @@
       <c r="K95" s="2">
         <v>9000</v>
       </c>
-      <c r="L95" s="41">
+      <c r="L95" s="33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="40">
+    <row r="96" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="32">
         <v>46157</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -9986,12 +9984,12 @@
       <c r="K96" s="2">
         <v>4250</v>
       </c>
-      <c r="L96" s="41">
+      <c r="L96" s="33">
         <v>0.26</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="40">
+      <c r="A97" s="32">
         <v>46158</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -10024,12 +10022,12 @@
       <c r="K97" s="2">
         <v>14700</v>
       </c>
-      <c r="L97" s="41">
+      <c r="L97" s="33">
         <v>0.41</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="40">
+    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="32">
         <v>46159</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -10062,12 +10060,12 @@
       <c r="K98" s="2">
         <v>2450</v>
       </c>
-      <c r="L98" s="41">
+      <c r="L98" s="33">
         <v>0.33</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="40">
+    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="32">
         <v>46160</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -10100,12 +10098,12 @@
       <c r="K99" s="2">
         <v>10500</v>
       </c>
-      <c r="L99" s="41">
+      <c r="L99" s="33">
         <v>0.41</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="40">
+      <c r="A100" s="32">
         <v>46161</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -10138,12 +10136,12 @@
       <c r="K100" s="2">
         <v>3500</v>
       </c>
-      <c r="L100" s="41">
+      <c r="L100" s="33">
         <v>0.33</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="40">
+      <c r="A101" s="32">
         <v>46162</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -10176,13 +10174,12 @@
       <c r="K101" s="2">
         <v>2800</v>
       </c>
-      <c r="L101" s="41">
+      <c r="L101" s="33">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14719,7 +14716,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B48"/>
-      <c r="M48" s="39"/>
+      <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="20" t="s">
@@ -15341,7 +15338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="N10" sqref="N10:O12"/>
     </sheetView>
   </sheetViews>
@@ -15357,265 +15354,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="35" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="35" t="s">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="35"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="36">
+      <c r="A10" s="36"/>
+      <c r="B10" s="40">
         <f>SUM('Piovet Table'!B2:B5)</f>
         <v>569805</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="37">
-        <f>AVERAGE('Row Data'!L2:L101)</f>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="41">
+        <f>AVERAGE('Cleaned Data'!L2:L101)</f>
         <v>0.30830000000000002</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="38" t="s">
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="37">
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="41">
         <v>-0.27</v>
       </c>
-      <c r="O10" s="38"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -15632,7 +15629,7 @@
       <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -15649,7 +15646,7 @@
       <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -15666,7 +15663,7 @@
       <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -15683,7 +15680,7 @@
       <c r="O18" s="29"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -15700,7 +15697,7 @@
       <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -15717,7 +15714,7 @@
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -15734,7 +15731,7 @@
       <c r="O21" s="29"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -15751,7 +15748,7 @@
       <c r="O22" s="29"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -15768,7 +15765,7 @@
       <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -15785,7 +15782,7 @@
       <c r="O24" s="29"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -15802,7 +15799,7 @@
       <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -15819,7 +15816,7 @@
       <c r="O26" s="29"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -15836,7 +15833,7 @@
       <c r="O27" s="29"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -15853,7 +15850,7 @@
       <c r="O28" s="29"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -15870,24 +15867,24 @@
       <c r="O29" s="29"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -15904,7 +15901,7 @@
       <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -15921,7 +15918,7 @@
       <c r="O32" s="29"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -15938,7 +15935,7 @@
       <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -15955,7 +15952,7 @@
       <c r="O34" s="29"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -15972,7 +15969,7 @@
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -15989,7 +15986,7 @@
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -16006,7 +16003,7 @@
       <c r="O37" s="29"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -16023,7 +16020,7 @@
       <c r="O38" s="29"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -16040,7 +16037,7 @@
       <c r="O39" s="29"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -16057,7 +16054,7 @@
       <c r="O40" s="29"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -16074,7 +16071,7 @@
       <c r="O41" s="29"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -16091,7 +16088,7 @@
       <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -16108,7 +16105,7 @@
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -16125,7 +16122,7 @@
       <c r="O44" s="29"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -16142,7 +16139,7 @@
       <c r="O45" s="29"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -16159,7 +16156,7 @@
       <c r="O46" s="29"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -16176,21 +16173,21 @@
       <c r="O47" s="29"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
